--- a/Requirements/SIQ.xlsx
+++ b/Requirements/SIQ.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Project Internet Banking System</t>
   </si>
@@ -33,42 +33,24 @@
     <t>REG_001</t>
   </si>
   <si>
-    <t xml:space="preserve">Fields for registeration:
+    <t>Fields for registeration:
 1. First name
 2. Last name
-3. gmail
+3. email
 4. password
 5. confirm password
-Account number will be sent to gmail as a user ID.
-</t>
+unique ID would appear in an alert.</t>
   </si>
   <si>
-    <t xml:space="preserve">Approved </t>
+    <t>Approved</t>
   </si>
   <si>
-    <t>log_001</t>
+    <t>login_001</t>
   </si>
   <si>
     <t>fields for login :
-1. Account number 
+1. email
 2. password</t>
-  </si>
-  <si>
-    <t>log_002</t>
-  </si>
-  <si>
-    <t>forget password fields and data:
-1.account number
-2. gmail 
-code will be sent to the user by email.</t>
-  </si>
-  <si>
-    <t>log_003</t>
-  </si>
-  <si>
-    <t>security for login:
-- Logout when the user is not using the website
- (session for 10 minutes)</t>
   </si>
   <si>
     <t>trans_001</t>
@@ -82,12 +64,12 @@
     <t>View_trans_001</t>
   </si>
   <si>
-    <t>view page content :
+    <t xml:space="preserve">view page content :
 1-name
 2-Date
 3-Current balance
 4-all transactions transfer history.
-5-Session timer.</t>
+</t>
   </si>
   <si>
     <t>admin_001</t>
@@ -95,14 +77,46 @@
   <si>
     <t>admin permissions:
 1-view client's account numbers and names.
-2-close client's account.</t>
+2-close client's account only if the current balance of the
+account is zero.</t>
+  </si>
+  <si>
+    <t>new_account_001</t>
+  </si>
+  <si>
+    <t>if the client is registered, he can add a new account, and
+each client can add several accounts.
+then account number will appear in an alert.</t>
+  </si>
+  <si>
+    <t>view_client_accounts</t>
+  </si>
+  <si>
+    <t>When the client log in successfully, all his accounts will
+appear on the page, then the client can choose one of
+them, and also an option for creating a new account</t>
+  </si>
+  <si>
+    <t>admin_002</t>
+  </si>
+  <si>
+    <t>admin didn't register, will be defined by data base system
+internaly</t>
+  </si>
+  <si>
+    <t>change_password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The admin and the client can change their password by entering:
+old password, new password and confirm new password.
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -130,11 +144,6 @@
     <font>
       <b/>
       <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -209,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -235,9 +244,6 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -456,7 +462,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="44.29"/>
-    <col customWidth="1" min="2" max="2" width="50.57"/>
+    <col customWidth="1" min="2" max="2" width="56.43"/>
     <col customWidth="1" min="3" max="3" width="47.14"/>
     <col customWidth="1" min="4" max="6" width="9.14"/>
     <col customWidth="1" min="7" max="26" width="8.71"/>
@@ -594,7 +600,7 @@
       <c r="Y4" s="5"/>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" ht="76.5" customHeight="1">
+    <row r="5" ht="53.25" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -628,11 +634,11 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" ht="100.5" customHeight="1">
+    <row r="6" ht="88.5" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -662,7 +668,7 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7" ht="53.25" customHeight="1">
+    <row r="7" ht="74.25" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
@@ -696,7 +702,7 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" ht="88.5" customHeight="1">
+    <row r="8" ht="53.25" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -765,9 +771,15 @@
       <c r="Z9" s="5"/>
     </row>
     <row r="10" ht="53.25" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -793,9 +805,15 @@
       <c r="Z10" s="5"/>
     </row>
     <row r="11" ht="53.25" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="1"/>
+      <c r="A11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -28456,62 +28474,6 @@
       <c r="Y998" s="5"/>
       <c r="Z998" s="5"/>
     </row>
-    <row r="999" ht="53.25" customHeight="1">
-      <c r="A999" s="5"/>
-      <c r="B999" s="5"/>
-      <c r="C999" s="1"/>
-      <c r="D999" s="5"/>
-      <c r="E999" s="5"/>
-      <c r="F999" s="5"/>
-      <c r="G999" s="5"/>
-      <c r="H999" s="5"/>
-      <c r="I999" s="5"/>
-      <c r="J999" s="5"/>
-      <c r="K999" s="5"/>
-      <c r="L999" s="5"/>
-      <c r="M999" s="5"/>
-      <c r="N999" s="5"/>
-      <c r="O999" s="5"/>
-      <c r="P999" s="5"/>
-      <c r="Q999" s="5"/>
-      <c r="R999" s="5"/>
-      <c r="S999" s="5"/>
-      <c r="T999" s="5"/>
-      <c r="U999" s="5"/>
-      <c r="V999" s="5"/>
-      <c r="W999" s="5"/>
-      <c r="X999" s="5"/>
-      <c r="Y999" s="5"/>
-      <c r="Z999" s="5"/>
-    </row>
-    <row r="1000" ht="53.25" customHeight="1">
-      <c r="A1000" s="5"/>
-      <c r="B1000" s="5"/>
-      <c r="C1000" s="1"/>
-      <c r="D1000" s="5"/>
-      <c r="E1000" s="5"/>
-      <c r="F1000" s="5"/>
-      <c r="G1000" s="5"/>
-      <c r="H1000" s="5"/>
-      <c r="I1000" s="5"/>
-      <c r="J1000" s="5"/>
-      <c r="K1000" s="5"/>
-      <c r="L1000" s="5"/>
-      <c r="M1000" s="5"/>
-      <c r="N1000" s="5"/>
-      <c r="O1000" s="5"/>
-      <c r="P1000" s="5"/>
-      <c r="Q1000" s="5"/>
-      <c r="R1000" s="5"/>
-      <c r="S1000" s="5"/>
-      <c r="T1000" s="5"/>
-      <c r="U1000" s="5"/>
-      <c r="V1000" s="5"/>
-      <c r="W1000" s="5"/>
-      <c r="X1000" s="5"/>
-      <c r="Y1000" s="5"/>
-      <c r="Z1000" s="5"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>

--- a/Requirements/SIQ.xlsx
+++ b/Requirements/SIQ.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhZ07Gh0LJQPeFxykzbCGnLLU2H+g=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjS3wTElVYoucmuZ9dLOsU94CUr1Q=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>Project Internet Banking System</t>
   </si>
@@ -102,14 +102,6 @@
   <si>
     <t>admin didn't register, will be defined by data base system
 internaly</t>
-  </si>
-  <si>
-    <t>change_password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The admin and the client can change their password by entering:
-old password, new password and confirm new password.
-</t>
   </si>
 </sst>
 </file>
@@ -805,15 +797,9 @@
       <c r="Z10" s="5"/>
     </row>
     <row r="11" ht="53.25" customHeight="1">
-      <c r="A11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="1"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -28446,34 +28432,6 @@
       <c r="Y997" s="5"/>
       <c r="Z997" s="5"/>
     </row>
-    <row r="998" ht="53.25" customHeight="1">
-      <c r="A998" s="5"/>
-      <c r="B998" s="5"/>
-      <c r="C998" s="1"/>
-      <c r="D998" s="5"/>
-      <c r="E998" s="5"/>
-      <c r="F998" s="5"/>
-      <c r="G998" s="5"/>
-      <c r="H998" s="5"/>
-      <c r="I998" s="5"/>
-      <c r="J998" s="5"/>
-      <c r="K998" s="5"/>
-      <c r="L998" s="5"/>
-      <c r="M998" s="5"/>
-      <c r="N998" s="5"/>
-      <c r="O998" s="5"/>
-      <c r="P998" s="5"/>
-      <c r="Q998" s="5"/>
-      <c r="R998" s="5"/>
-      <c r="S998" s="5"/>
-      <c r="T998" s="5"/>
-      <c r="U998" s="5"/>
-      <c r="V998" s="5"/>
-      <c r="W998" s="5"/>
-      <c r="X998" s="5"/>
-      <c r="Y998" s="5"/>
-      <c r="Z998" s="5"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
